--- a/Server/issuedot-server/static/selected/selected_20220830.xlsx
+++ b/Server/issuedot-server/static/selected/selected_20220830.xlsx
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>세계</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北 핵실험장에 홍수 피해, 10월까지 핵실험 자제할까?</t>
+          <t>홍수·시진핑에 가로막히는 김정은 7차 핵실험</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220830n09615?mid=n0501</t>
+          <t>https://news.nate.com/view/20220830n11704?mid=n0401</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>北 풍계리 핵실험장에서 홍수 피해 발견핵실험 준비는 마쳤으나 실제 실험은 10월 이후로 미뤄질 듯  지난 2018년에 폭파 직전 촬영된 북한 함경북도 길주군 풍계리의 핵실험장 4번 갱도.뉴스1 [파이낸셜뉴스] 7차 핵실험을 준비하는 북한이 비로 인한 시설 손상으로 당분간 핵실험에 나서기 어렵다는 관측이 나왔다. 전문가들은 북한이 중국의 지도부가 확정되는 오는 10월 전까지는 함부로 핵도발을 하지 않을 것이라고 분석했다.  미국 싱크탱크 전략국제문제연구소(CSIS)가 운영하는 북한 전문 매체 ‘분단을 넘어(Beyond Parallel)’는 29일(현지시간) 보도에서 이같이 밝혔다. 매체는 지난 6월 24일부터 이달 24일까지 약 2개월 동안 함경북도 길주군 풍계리의 핵실험장 위를 지나간 상업위성들의 촬영 사례 7건을 분석했다.  매체는 북한의 7차 핵실험 장소로 지목되는 풍계리 3번 갱도의 경우 추가적인 움직임이 포착되지 않았다면서 "이는 한국과 미국 정부 양쪽에서 북한의 핵실험 준비가 끝났다고 분석하는 상황에서 예상하지 못 할 일은 아니다"라고 지적했다.  풍계리 핵실험장에는 모두 4개의 갱도가 있으며 1번 갱도에서 2006년 1차 핵실험이 진행됐다. 2~6차 핵실험은 2번 갱도에서 이뤄졌다. 북한은 지난 2018년에 한국 및 미국과 정상회담을 앞두고 핵실험과 대륙간탄도미사일(ICBM) 실험을 중단한다고 선언하며 핵실험장의 갱도들을 폭파했다.  그러나 북한은 올해 초부터 3번 갱도의 복구 작업을 진행해 이미 지난 6월에는 작업을 마친 것으로 파악됐다. 아울러 북한은 4번 갱도 인근에도 복구용 자재들을 쌓아뒀다.  분단을 넘어는 이번 발표에서 4번 갱도의 경우 추가 복구 작업이 관측되지 않았다고 설명했다. 이어 "최근의 폭우로 복구 공사가 일시적으로 중단된 것 같다"며 "지난 두 달간 계속된 비의 영향으로 시설에 접근 가능한 유일한 진입로에 일부 홍수 피해가 감지됐다"고 설명했다.  지휘본부 주변에도 홍수 피해가 확인됐다. 매체는 "본부와 지원시설을 연결하는 유일한 연결로에 새로운 우회로가 더해졌다"며 "원래 도로는 홍수 및 태풍의 피해를 받았을 가능성이 의심된다"고 분석했다. 이어 "4번 갱도 공사의 목적은 북한의 핵실험 능력 확장일 수도 있지만, 북한이 위장을 위해 불필요한 공사를 진행하고 있다는 주장 또한 제기되고 있다는 점을 재확인한다"고 덧붙였다.  앞서 이종섭 국방장관은 국회 국방위에 출석, "풍계리 핵실험장 3번 갱도는 핵실험이 가능한 상태에서 특이동향은 미식별된다"고 밝혔다. 북한의 조선중앙통신은 29일 보도에서 러시아 전문가의 인터뷰를 인용하며 한국과 미국이 북한의 핵실험을 강요하고 있다며 실험 시기가 한·미의 기대 시점은 절대로 아닐 것이라고 강조했다.  자유아시아방송(RFA) 등 북한 전문 매체들은 북한이 중국의 동향을 주시하고 있다고 분석했다. 중국에서는 오는 10월 중순~11월 초에 제20차 공산당 전국대표대회(당 대회)가 열릴 전망이다. 해당 행사는 앞으로 5년 동안 중국 공산당의 지도자를 뽑는 절차로 시진핑 중국 국가주석의 3연임이 거의 확실하다. 이에 전문가들은 북한이 시진핑의 3연임 확정 전에는 핵실험으로 주변국을 도발하지 않을 것이라고 내다봤다.[파이낸셜뉴스 핫뉴스]</t>
+          <t>북 풍계리 핵실험장 4번 갱도 홍수 피해시진핑, 3연임 앞두고 김정은 긴장감 조절북한 풍계리 핵 실험장 3번 갱도. [사진=38노스 누리집 갈무리]북한 함경북도 길주군 풍계리 핵실험장 갱도 일부가 홍수 피해를 입은 것으로 나타났다.30일 미국 전략국제문제연구소(CSIS) 북한 전문 사이트 ‘분단을 넘어(Beyond Parallel)’는 보고서를 통해 “지난 24일 촬영된 위성사진을 분석한 결과 함경남도 길주군 풍계리 핵실험장 4번 갱도 진입 도로에 홍수 피해가 관찰됐다”고 밝혔다.이어 “지난 7월 말~8월 초 지휘본부와 지원시설을 연결하는 유일한 진입로에 새로운 우회로가 더해졌다”며 “원래 도로는 홍수와 태풍 피해를 입었을 가능성이 의심된다”고 주장했다.북한 기상 상황은 핵실험 시기를 결정하는 중요 변수다. 폭우가 내리면 풍계리 핵실험장 갱도까지 연결된 비포장 도로가 무너져 실험장비를 운반하기 어렵기 때문이다. 또 습기에 약한 핵실험 계측 장비에도 영향을 줄 수 있다. 비가 내리기 전후에 핵실험을 하면 방사능 물질이 지표 아래로 스며들어 하천으로 유입될 가능성도 있다.그럼에도 군 당국은 북한이 핵실험 준비를 대부분 완료한 것으로 평가하고 있다. 특히 군 당국은 북한 핵무기 제조용 플루토늄 또는 우라늄 양이 지난 5년간 10% 정도 증가한 것으로 분석하고 있다.이종섭 국방부 장관은 전날 국회 국방위원회 전체 회의에 출석해 “풍계리 핵실험장 3번 갱도는 핵실험이 가능한 상태”라고 지적하면서도 “특이 동향은 미식별된다”고 북한군 동향을 설명했다.북한이 핵실험 준비를 완료하고도 시간을 끄는 이유는 정치적 판단 때문이라는 분석이다. 첫손에 꼽히는 이유는 오는 10월 열리는 중국 20차 당 대회다. 20차 당 대회에서 시진핑 중국 국가주석 3연임이 결정되기 때문이다.20차 당 대회 직전에 북한이 핵실험을 하기에는 부담이 크다. 오히려 시진핑 주석 장기 집권이 확정된 이후인 11월 미국 중간선거 직전이 북한 입장에서 효과적으로 대남·대미 압박을 할 수 있는 적기라는 분석이다.북, 러시아 전문가 통해 "한·미가 핵실험을 부추기고 있다" 주장반면 북한은 관영매체를 통해 한·미가 핵실험을 부추기고 있다고 주장했다. 조선중앙통신은 전날 한반도 문제 전문가인 알렉산드르 보론초프 러시아과학원 동방학연구소 한국·몽골과장이 타스통신과 인터뷰하면서 “현재 미국과 남조선(남한)이 조선민주주의인민공화국(북한)을 부추기고 있다는 느낌이 든다”고 전했다.한·미가 급진적인 행동을 변명할 구실을 찾기 위해 안간힘을 쓰면서 북한이 핵무기 실험을 진행하도록 강요하고 있다는 것이다.보론초프 과장은 특히 한·미가 북한 핵실험과 관련해 “기정사실처럼 매우 확신성 있게 떠들고 있으며 구체적인 날짜까지 짚고 있다”며 “상대방이 원하고 기대하는 시기는 절대로 아닐 것”이라고 말했다.홍민 통일연구원 북한연구실장은 ‘인용 보도 방식’에 대해 “북한과 러시아가 공동 전선을 형성하면서 자신들 메시지에 신뢰성을 부여해 메시지 효과를 극대화했다”고 평가했다.그러면서 “본인들 입으로 거칠게 대남 비난을 하던 기존 방식에서 벗어나 메시지 발신을 다변화하는 움직임”이라고 해석했다.아주경제=김정래 기자 kjl@ajunews.com★관련기사★추천기사- Copyright ⓒ [아주경제 ajunews.com] 무단전재 배포금지 -</t>
         </is>
       </c>
     </row>
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>세계</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>힐러리, '파티 논란' 핀란드 마린 총리에 "계속 춤춰"…마린 "감사"</t>
+          <t>"계속 춤춰"…힐러리 클린턴, 파티 논란 핀란드 총리에 '응원 메시지'</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220830n03193?mid=n0501</t>
+          <t>https://news.nate.com/view/20220830n38817?mid=n0401</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>힐러리 클린턴 전 미 국무장관의 응원 메시지에 대한 핀란드 총리의 감사 인사. 트위터 캡처.힐러리 클린턴 전 미국 국무장관이 파티 영상 유출로 여론의 도마에 오른 산나 마린 핀란드 총리를 응원했다.클린턴 전 장관은 28일(현지시간) 트위터 계정에 여러 사람들과 함께 즐겁게 춤을 추는 자신의 모습이 담긴 사진을 올리고 “이건 국무장관으로 회의에 참석했을 때 (콜롬비아) 카르타헤나에서의 내 모습”이라고 설명했다. 이 사진은 클린턴 전 장관이 2012년 콜롬비아 카르타헤나에서 열린 미주기구(OAS) 정상회의 기간 중에 찍힌 것이다. 클린턴 전 장관은 이어 마린 총리의 트위터 계정을 태그한 후 “계속 춤춰”라고 썼다.클린턴 전 장관이 국무장관 시절에 참석한 국제회의 때 춤을 춘 사진을 공개한 것은 사적인 자리에서 파티를 즐긴 영상이 유출되면서 곤욕을 치른 마린 총리를 응원하기 위한 것으로 보인다.클린턴 전 장관은 트윗 첫 머리에 “진저 로저스는 프레드 아스테어가 했던 모든 것을 다했다. 다만 하이힐을 신고 거꾸로 했을 뿐이다”라는 앤 리처즈 전 텍사스 주지사(1933~2006)의 말을 인용했다. 진저 로저스는 1941년 아카데미 여우주연상을 수상한 배우로 댄서 겸 가수인 프레드 아스테어와 함께 출연한 여러 뮤지컬 영화에서 탁월한 춤솜씨를 선보였다. 리처즈의 발언은 여성들이 남성들과 똑같은 일을 훨씬 더 어려운 조건에서 해내고 있다는 점을 강조한 것이다.마린 총리는 자신의 트위터에 클린턴 전 장관의 트윗을 올린 뒤 하트 이모티콘과 함께 “감사하다”는 메시지를 남겼다.2019년 34세로 당시 세계 최연소 총리가 된 마린 총리는 최근 파티 때 찍힌 동영상이 유출돼 곤욕을 치렀다. 영상에서 ‘코카인’을 뜻하는 은어가 들렸다는 주장이 나오면서 지난 19일에는 자진해서 마약 검사까지 받았다. 논란이 계속되자 핀란드 여성 수백명은 SNS에 자신들이 춤추는 사진을 올려 마린 총리를 지지했다.마린 총리는 지난 24일 기자회견에서 “나도 인간이며 이 어두운 구름 속에서 기쁨과 빛, 재미를 그리워할 때가 있다”고 말했다. 이어 “나는 단 하루도 일을 빼먹은 적이 없고 단 하나의 작업도 미루지 않았다”면서 “우리가 여가 시간에 하는 일보다 직장에서 하는 일을 사람들이 봐주리라 믿는다”고 말했다.정원식 기자 bachwsik@kyunghyang.com경향신문 주요뉴스ⓒ경향신문(www.khan.co.kr), 무단전재 및 재배포 금지</t>
+          <t>미국 국무장관 시절 춤추는 사진자신의 SNS에 올리며 “내 모습”마린, 클린턴 글 공유하며 “감사”산나 마린, 힐러리 클린턴힐러리 클린턴 전 미국 국무장관이 파티 영상 유출로 여론의 도마에 오른 산나 마린 핀란드 총리를 응원했다.클린턴 전 장관은 28일(현지시간) 트위터 계정에 여러 사람들과 함께 즐겁게 춤을 추는 자신의 모습이 담긴 사진을 올리고 “이건 국무장관으로 회의에 참석했을 때 (콜롬비아) 카르타헤나에서의 내 모습”이라고 설명했다. 이 사진은 클린턴 전 장관이 2012년 콜롬비아 카르타헤나에서 열린 미주기구(OAS) 정상회의 기간 중에 찍힌 것이다. 클린턴 전 장관은 이어 마린 총리의 트위터 계정을 태그한 후 “계속 춤춰”라고 썼다. 클린턴 전 장관이 국무장관 시절에 참석한 국제회의 때 춤을 춘 사진을 공개한 것은 사적인 자리에서 파티를 즐긴 영상이 유출되면서 곤욕을 치른 마린 총리를 응원하기 위한 것으로 보인다.클린턴 전 장관은 트윗 첫 머리에 “진저 로저스는 프레드 아스테어가 했던 모든 것을 다했다. 다만 하이힐을 신고 거꾸로 했을 뿐이다”라는 앤 리처즈 전 텍사스 주지사(1933~2006)의 말을 인용했다. 진저 로저스는 1941년 아카데미 여우주연상을 수상한 배우로 댄서 겸 가수인 프레드 아스테어와 함께 출연한 여러 뮤지컬 영화에서 탁월한 춤솜씨를 선보였다. 리처즈의 발언은 여성들이 남성들과 똑같은 일을 훨씬 더 어려운 조건에서 해내고 있다는 점을 강조한 것이다.마린 총리는 자신의 트위터에 클린턴 전 장관의 트윗을 올린 뒤 하트 이모티콘과 함께 “감사하다”는 메시지를 남겼다.2019년 34세로 당시 세계 최연소 총리가 된 마린 총리는 최근 파티 때 찍힌 동영상이 유출돼 곤욕을 치렀다. 영상에서 ‘코카인’을 뜻하는 은어가 들렸다는 주장이 나오면서 지난 19일에는 자진해서 마약 검사까지 받았다. 논란이 계속되자 핀란드 여성 수백명은 SNS에 자신들이 춤추는 사진을 올려 마린 총리를 지지했다.마린 총리는 지난 24일 기자회견에서 “나도 인간이며 이 어두운 구름 속에서 기쁨과 빛, 재미를 그리워할 때가 있다”고 말했다. 이어 “나는 단 하루도 일을 빼먹은 적이 없고 단 하나의 작업도 미루지 않았다”면서 “우리가 여가 시간에 하는 일보다 직장에서 하는 일을 사람들이 봐주리라 믿는다”고 말했다.정원식 기자 bachwsik@kyunghyang.com경향신문 주요뉴스ⓒ경향신문(www.khan.co.kr), 무단전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
@@ -527,17 +527,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"반성없다"…'혐한' 日 우토로 마을 방화범에 징역 4년 선고</t>
+          <t>"한국인이 싫다" 마을·학교에 불 지른 20대에 '징역 4년'</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220830n28857?mid=n0501</t>
+          <t>https://news.nate.com/view/20220830n38669?mid=n0501</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>지난해 재일동포가 많이 살고 있는 교토 우토로지구 건물과 나고야 소재 한국학교 건물에 불을 지른 20대에 일본 법원이 징역 4년의 실형을 선고했다.NHK, 요미우리신문 등에 따르면 교토지방법원은 30일 방화 및 기물손괴 등의 혐의를 받고 있는 피고인 아리모토 쇼고(23)에게 “편견과 혐오감에 의한 범행으로 민주주의 사회에서 도저히 허용할 수 없다”며 검찰의 구형대로 징역 4년을 선고했다.나라현 사쿠라이시에 거주하는 아리모토는 지난해 8월 재일동포가 많이 사는 교토부 우지시의 우토로 지구의 창고에 라이터로 불을 질러 주택 등 7동을 모두 태웠다. 특히 이 불로 재일교포 등으로 구성된 ‘우토로민간기금재단’이 일제 강점기의 재일조선인 역사를 보여줄 ‘우토로평화기념관’ 전시용으로 보관 중이던 세움 간판 등 귀중한 자료 약 50점이 사라졌다. 우토로평화기념관은 연면적 450㎡, 지상 3층 규모로 내년 4월 개관할 예정이다.아리모토는 또 우토로 방화 한 달여 전인 지난해 7월 24일 나고야시의 재일본대한민국민단이나 한국학교의 일부 건물과 학교 잔디 등을 손상시켰다.이날 재판에서 피고인은 “한국인에게 적대감이 있었다”, “전시품을 사용할 수 없게 함으로써, 기념관의 개관을 저지하는 목적이 있었다” 등이라고 진술했다.재판장은 이날 판결에서 피고인이 방화사건 직전에 직장(병원)을 그만두고 자포자기 상태에서 사회의 이목을 끌려고 사건을 일으켰다고 지적하면서 “재일동포라는 특정 출신에 대한 편견과 혐오감에 따른 이기적이고 독선적인 동기에서 폭력적인</t>
+          <t>소녀상 일본 전시에 ‘불만’지난해 우토로 등 2곳 방화인터넷 댓글 보며 혐오 키워한국인이 싫다는 이유로 재일한국인 집단 거주지 교토 우토로 마을과 나고야 한인 관련 시설에 불을 지른 아리모토 쇼고(23)에게 30일 징역 4년이 선고됐다고 아사히신문 등 일본 언론들이 전했다.나라현 사쿠라이시 주민인 아리모토는 지난해 8월 교토부 우지시 우토로 마을의 빈집에 들어가 불을 질러 인접 주택 7동을 태웠다. 같은 해 7월에는 아이치현 나고야시의 재일본대한민국민단(민단) 아이치현본부와 본부 근처의 한국학교에 불을 질렀다. 두 사건에서 인명피해는 없었다.일본 언론들에 따르면 아리모토는 지난 5월 열린 첫 공판에서 “한국인에게 적대감을 갖고 있었다. (방화로) 전시품을 못 쓰게 되면 우토로 평화기념관 개관 저지로 이어진다”고 말했다. 나고야시의 민단 건물과 한국학교를 표적으로 삼은 이유는 나고야시에서 열린 ‘평화의 소녀상’ 전시 때문이라고 밝혔다.아리모토는 재일 한국인을 만난 적 없으며 인터넷에 돌아다니는 정보를 토대로 악감정을 갖게 됐다. 온라인의 혐오를 부추기는 댓글이나 정보가 범죄로 이어질 수 있다는 것을 보여준 사례였다.우토로 마을은 특히 전쟁과 강제동원의 역사가 담긴 곳이다. 제2차 세계대전 중인 1941년 교토 군 비행장 건설에 동원된 조선인들이 우토로 마을에서 임시 가건물을 짓고 생활하면서 이 마을은 재일한국인 집단 거주지가 됐다.마을 주민들은 일본 정부의 방치 속에서 열악하게 살았다. 1988년이 돼서야 상수도가 들어올 정도였다. 토지 소유주인 닛산이 1989년 주민들 몰래 토지를 매각하면서 주민들은 쫓겨날 위기를 겪었다. 2000년 일본 최고 재판소가 주민들의 퇴거를 명령한 것을 계기로 한·일 양국에서 우토로 주민들을 돕기 위한 대책위가 결성됐다. 이후 한국 정부의 지원으로 토지 일부를 다시 사들인 뒤 우지시가 공공주택을 짓기로 하면서 퇴거 문제가 해결됐다. 마을의 역사를 담은 우토로 평화기념관 건립도 결정됐다. 이 같은 계획과 우토로 마을의 상징성 때문에 범행의 충격은 더욱 컸다.우토로 방화는 특정 민족·젠더에 대한 차별과 혐오가 원인인 혐오범죄에 대한 우려를 불러일으켰다. 하지만 일본 형법에는 혐오범죄를 별도로 처벌하는 조항은 없다. 형사범죄의 동기가 특정 인종, 민족, 종교, 젠더 등에 대한 혐오라고 판사가 판단하면 가능한 범위 내 엄중한 형을 선고하게 돼 있다. 아리모토에게도 방화죄가 적용됐다.가중처벌 여부도 판사 재량에 달렸다. 이에 따라 혐오범죄의 성격을 띠는 범죄가 제대로 처벌되지 않는 경우도 있다. 2009년 교토 조선인학교에서 혐오 발언을 쏟아내며 시위를 벌인 극우단체 재일특권을허용하지않는시민회의(재특회) 간부 4명이 집행유예를 선고받은 것이 단적인 사례다.우토로 평화기념관은 지난 4월 말 개관했다. 아사히신문에 따르면 이달까지 약 3개월 동안 약 4500명이 다녀갔다. 지난달에는 2차 대전 당시 일본군의 희생 강요로 136명이 목숨을 잃은 오키나와현 한 마을의 초등학교 학생들이 기념관을 단체 견학했다. 주민들을 위한 공공주택은 내년 봄 완성돼 현재 남아 있는 주민 100여명 가운데 희망자들이 입주할 예정이다.박은하 기자 eunha999@kyunghyang.com경향신문 주요뉴스ⓒ경향신문(www.khan.co.kr), 무단전재 및 재배포 금지</t>
         </is>
       </c>
     </row>
@@ -554,17 +554,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>캄보디아에서 잡힌 악성사기꾼 2명…경찰, 강제송환</t>
+          <t>'현실판 범죄도시'…교민 상대 투자사기 피의자 국내 강제송환</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220830n05778?mid=n0401</t>
+          <t>https://news.nate.com/view/20220830n05203?mid=n0401</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>- 투자 수익 배분 빌미로 교민 상대 1억 편취한 A씨- 리모델링 대금 등 8.6억 빼돌린 사기 수배범 B씨[이데일리 이소현 기자] 경찰청은 캄보디아로 도피해 숨어있던 악성사기범 2명을 현지 경찰과 국제공조로 검거, 인천국제공항을 통해 강제 송환했다고 30일 밝혔다.캄보디아에서 악성사기 혐의로 붙잡힌 피의자 A씨(왼쪽)과 B씨(사진=경찰청)이번에 강제송환 된 피의자 A씨(50·남)는 필리핀과 말레이시아 등 동남아 일대를 떠돌며 사업 투자를 빌미로 교민 대상으로 다수의 사기행각을 벌였다. 2011년 9월쯤 필리핀에서 “필리핀에 있는 백화점에서 액세서리 판매장을 개점할 예정인데 투자금을 빌려달라”고 2000만원을 속여 뺏었다. 2019년 3월쯤에는 말레이시아에서 “지입차량 구매에 투자하면 일정 수익을 배분해 주겠다”며 약 4000만원을 편취하는 등 모두 1억원 상당을 편취한 혐의를 받고 있다.국내 수사관서인 남양주남부경찰서의 국제공조 요청으로 A씨에 대한 소재를 추적하던 경찰청은 작년 12월쯤 캄보디아 경찰 주재관으로부터 A씨가 캄보디아에 있으며 필리핀·말레이시아에 이어 캄보디아에서도 교민들 최소 5~6명을 상대로 1인당 1만 달러 상당 규모로 추정되는 사기 행각을 벌이고 있다는 첩보를 확보했다.이에 경찰청은 경찰주재관과 캄보디아 경찰과 A씨의 소재지를 지속 추적·공유했으며, 마침내 지난 6월 8일 현지 은신처에서 A씨를 검거했다.A씨를 현지에서 검거한 후 경찰청은 캄보디아 당국과 지속적으로 A씨에 대한 국내 송환 협의를 진행했다. 마침내 캄보디아 당국에서 A씨에 대한 강제추방을 결정, 캄보디아 경찰청에서 직접 대상자를 한국으로 호송했다.캄보디아 현지에서 붙잡힌 악성사기범 2명이 30일 오전 8시15분쯤 인천국제공항에 도착해 경찰이 강제송환하고 있다.(사진=경찰청)이어 또 다른 악성사기 도피 사범 B(50·남)씨도 함께 송환했다. B씨는 국내에서 리모델링 공사 대금 3억3000만원을 속여 뺏는 등 상습적인 사기 범행으로 총 8억6000만원을 편취한 혐의를 받고 있다. B씨는 국내에서 사기수배만 6건에 달했다.강기택 인터폴국제공조과장은 “전화금융사기·해외투자사기 등 많은 악성사기범죄가 해외에서 발생하는 만큼 국제공조가 매우 중요하다”며 “앞으로 악성사기범죄 근절을 위해 인터폴과 주요국 법 집행기관, 국내 수사기관 간 공조 네트워크를 더욱 강화해 나가겠다”고 말했다.경찰청은 이번 캄보디아 경찰 호송팀의 한국 방문을 기회로 캄보디아 내 악성사기범죄 국외도피사범 관련 공조회의를 추진하고 캄보디아 측의 적극적인 검거·송환을 당부한다는 방침이다.앞서 윤희근 경찰청장은 취임과 함께 국민 체감 약속 1호로 서민 경제에 치명적 피해를 주는 악성사기에 대한 강력한 척결을 피력한 바 있다. 경찰청이 규정한 7대 악성사기 범죄는 △전기통신금융 사기 △사이버 사기 △가상자산 유사수신 사기 △전세 사기 △보험 사기 △투자·영업·거래 사기 등 기타 조직적 사기 △특경법상 사기 등이다.▶ 관련기사 ◀[][][][][][][]＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞이소현 atoz@</t>
+          <t>동남아서 사업 투자 빌미로 교민 상대 사기행각 경찰청은 30일 해외에서 수차례 사기행각을 벌여온 혐의를 받는 50대 A씨를 캄보디아에서 검거, 이날 인천국제공항을 통해 강제송환했다고 밝혔다. (사진=경찰청 제공)[헤럴드경제=채상우 기자] 동남아에서 해외 교민을 상대로 사기범죄를 저지른 피의자와 국내서 사기를 저지르고 동남아로 도망간 피의자가 경찰에 붙잡혔다.30일 경찰청은 캄보디아 경찰과 국제공조로 사기혐의 피의자 2명을 검거해 이날 강제송환했다고 밝혔다.강제송환 된 피의자 A(50) 씨는 필리핀, 말레이시아 등 동남아 일대를 떠돌며 사업 투자를 빌미로 교민을 대상으로 사기행각을 벌였다.2011년 9월경에는 “필리핀에 있는 백화점에서 악세사리 매장을 오픈할 예정인데 투자금을 빌려달라”며 2000만원을 편취했다. 2019년 3월경에는 말레이시아에서 “지입차량 구매에 투자하면 일정 수익을 배분해 주겠다”며 약 4000만원을 편취하는 등 1억원 상당을 편취한 혐의를 받고 있다.경찰청은 지난해 12월, 캄보디아 경찰 주재관으로부터 A씨가 캄보디아에 있으며 필리핀·말레이시아에 이어 캄보디아에서도 교민들 다수를 상대로 계속 사기 행각을 벌이고 있다는 첩보를 확보했다. 캄보디아 교민 피해자는 최소 5~6명으로 파악하고 있으며, 피해금액은 1명당 한화 약 1350만원으로 추정하고 있다.이에 경찰청은 경찰주재관 및 캄보디아 경찰과 A씨의 소재지를 지속 추적·공유하였고 마침내 올해 6월 8일 현지 은신처에서 A씨를 검거하였다.캄보디아 호송팀은 경찰청과 협의하여 또다른 악성사기 도피사범 B(50) 씨도 함께 송환했다. B씨는 국내에서 리모델링 공사 대금 3억3000만원을 편취하는 등 상습적인 사기 범행으로 총 8억6000만원을 편취한 혐의를 받고 있다.경찰청은 금번 캄보디아 경찰 호송팀의 한국 방문을 기점으로 캄보디아 내 악성사기범죄 국외도피사범 관련 공조회의를 추진하고 캄보디아 측의 적극적인 검거·송환을 당부할 예정이다.강기택 인터폴국제공조과장은 “전화금융사기·해외투자사기 등 많은 악성사기범죄가 해외에서 발생하는 만큼 국제공조가 매우 중요하다”며 “앞으로 악성사기범죄 근절을 위해 인터폴 및 주요국 법 집행기관, 국내 수사기관 간 공조 네트워크를 더욱 강화해 나가겠다”고 밝혔다.123@heraldcorp.com[베스트 클릭! 헤럴드 경제 얼리어답터 뉴스]Copyright ⓒ 헤럴드경제 All Rights Reserved.</t>
         </is>
       </c>
     </row>
@@ -608,17 +608,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"조직으로 끌고 승진으로 민다"…한화 '김동관 체제' 강화</t>
+          <t>한화 김동관, 부회장 승진…경영권 승계 보폭 빨라져</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220830n13623?mid=n0301</t>
+          <t>https://news.nate.com/view/20220830n00913?mid=n0301</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>입사 12년만에 부회장 승진, 그 배경과 의미김승연 한화그룹 회장의 장남인 김동관 한화솔루션 사장이 지난 29일 부회장으로 승진했다. 사장 자리에 오른 지 2년 만이다. 한화그룹은 이달 초에도 김 부회장이 맡고 있는 부문을 강화하는 사업 개편을 단행한 바 있는데, 한달도 채 되지 않아 부회장 승진 인사를 통해 김 부회장 체제 강화에 속도를 올리고 있다는 분석이다. 이로써 그룹의 차기 리더로 천명됐다는 평가를 받는 김 부회장은 태양광, 우주항공, 수소 등 그룹이 우위의 시장지배력을 점하고 있는 분야를 중심으로 한화의 미래 전략 수립에 더욱 주력할 것으로 전망된다.▶입사 12년 만에 부회장 올라=1983년생인 김 부회장(40세)은 미국 세인트폴고등학교와 하버드대 정치학과를 졸업하고 2010년 한화그룹에 입사했다. 그룹 회장실 차장으로 일을 시작, 2015년 1월부터 11월까지 한화큐셀 상무로 영입된 뒤 같은 해 12월 곧바로 전무로 승진했다.이어 2019년 부사장으로 승진했으며 2020년 9월 한화솔루션 사장에 선임됐다. 이후 2년 만에 다시 부회장직에 올랐다. 김 부회장은 기존 한화솔루션 전략부문 대표에 더해 ㈜한화 전략부문·한화에어로스페이스 전략부문 대표도 함께 맡는다.이재용 삼성전자 부회장이 45세에 부회장을 달았고, 정의선 현대차그룹 회장과 정용진 신세계그룹 부회장이 각각 40세, 39세에 부회장직에 올랐다는 점을 감안하면 김 부회장의 승진 시점은 빠르지도, 느리지도 않다는 평가가 나온다. 아버지 김승연 회장(71세)의 나이를 감안해도 적절하다는 시각이다. 실제 이 부회장도 고 이건희 회장이 71세 때 부회장으로 승진했다.▶태양광·우주산업 진두지휘 성과=김 부회장은 그동안 그룹에서 태양광 사업을 이끌었다. 한화솔루션 큐셀부문(한화큐셀)이 미국과 독일, 영국, 한국 등 주요 태양광 시장 점유율 1위를 차지하며 시장을 선도하는 기업으로 성장하는 데 기여했다는 평가다. 또 ㈜한화를 정밀화학기업으로 체질 개선하는 데도 힘써왔다. 한화에어로스페이스에서도 스페이스허브 팀장을 맡아 누리호 엔진을 납품하고, ‘뉴스페이스’ 시대를 준비하는데도 주도적인 역할을 했다.최근 한화그룹은 계열사 3곳에 분산돼있던 방산사업을 한화에어로스페이스로 통합하는 사업재편을 단행했다. 김 부회장이 통합 시너지 제고와 글로벌 방산기업 도약을 주도할 전망이다. 한화그룹 관계자는 김 부회장의 승진에 대해 “사업재편 후 시장 공략을 가속화하는 차원이며, 무엇보다 책임경영 강화의 일환”이라고 말했다.▶㈜한화 지분승계 방법 과제=사실 김 부회장이 그룹의 얼굴로 나서기 시작한 지는 꽤 됐다. 지난 5월, 조 바이든 미국 대통령 방한 시에도 그룹을 대표해 공식 환영 만찬에 참석했고 이에 앞서 열린 한·미 비즈니스 라운드 테이블에도 참여해 태양광 사업에 대한 한·미 협력 방안에 대한 의견을 제시하기도 했다. 같은 달 스위스 다보스에서 열린 세계경제포럼(WEF)에서는 국내 기업 중 유일하게 민간 외교관으로 활약했다.이런 가운데 그룹의 향후 과제는 순조로운 지분승계 과정이 될 것이라는 관측이다. 이의 핵심은 그룹의 지주사 격인 ㈜한화 주식을 어떻게 넘기느냐가 될 것으로 보인다. 현재 ㈜한화 지분은 김승연 회장이 22.65%, 김 부회장이 4.44%, 차남과 삼남인 김동원·김동선이 각각 1.67%를 보유 중이다. 일각에서는 3남이 전체 지분을 들고 있는 한화에너지의 기업가치를 높여 ㈜한화 지분 상속 비용을 마련할 것이라는 전망이 제기된다.▶9개 계열사 전문성·쇄신 인사 단행=한화 그룹은 9개 계열사 대표에 대한 내정 및 승진 인사도 발표됐다. 전문성과 쇄신이 강조됐으며 김 부회장 체제를 더 공고히 하는 인사라는 평가다.한화건설 신임 대표에는 김승모 ㈜한화 방산부문 대표가 내정됐다. 김 대표는 방산 부문 통합 전까지 ㈜한화 방산부문 대표도 함께 맡는다. 한화에어로스페이스 대표에는 손재일 한화디펜스 대표가 김 부회장과 함께 각자 대표이사로 내정됐다. 손 대표는 통합 전까지 한화디펜스 대표도 겸직하게 된다. ㈜한화 모멘텀 및 한화정밀기계 신임 대표이사에는 류두형 한화솔루션 첨단소재부문 대표가 내정됐다.한화솔루션 첨단소재부문에는 김인환 한화토탈에너지스 수지사업부문장이 신임 대표로 내정됐다. 한화H2Energy 대표에는 손영창 한화파워시스템 대표가 내정됐으며, 손 대표는 두 회사 대표를 함께 맡는다. 지난 7월 ㈜한화 글로벌부문 대표이사로 내정된 양기원 전무는 부사장으로 승진했다. 한화솔루션 Q에너지 대표이사를 맡은 정상철 상무는 전무로 승진했다. 양 대표와 정 대표는 1970년대생으로 세대교체의 신호탄이라는 평가도 받고 있다.한화그룹은 “대내외 경영환경의 불확실성이 커지는 가운데, 지속적인 사업 경쟁력 강화와 미래시장 선점을 위해 사업구조 재편을 진행 중인 회사를 중심으로 전략 및 사업 전문성이 검증된 대표를 내정 또는 재배치했다”며 “지속가능한 성장 기반을 마련하고자 하는데 주안점을 뒀다”고 설명했다. 서경원 기자gil@heraldcorp.com[베스트 클릭! 헤럴드 경제 얼리어답터 뉴스]Copyright ⓒ 헤럴드경제 All Rights Reserved.</t>
+          <t>한화그룹 9개 계열사 대표 인사김승연 한화그룹 회장의 장남인 김동관 한화솔루션 사장이 29일 부회장으로 승진했다. 김 부회장은 한화솔루션 전략부문 대표이사와 함께 ㈜한화 전략부문과 한화에어로스페이스 전략부문 대표이사 부회장도 맡게 됐다. 김 부회장이 한화그룹의 미래사업 전면에 나서며 한화그룹의 경영권 승계가 본격화했다는 분석이 나온다.한화그룹은 이날 ㈜한화 전략·글로벌·모멘텀 부문과 한화건설, 한화솔루션, 한화에어로스페이스 등 9개 계열사 대표이사에 대한 내정 및 승진 인사를 발표했다. 내정된 대표이사들은 각 사 일정에 따라 주주총회와 이사회를 거쳐 대표이사로 최종 선임된다.이번 인사의 핵심은 김 부회장의 승진이다. 김 부회장은 한화솔루션 전략부문 대표이사와 ㈜한화 전략부문장, 한화에어로스페이스 스페이스허브 팀장을 맡아 왔다. 김 부회장은 앞으로도 한화그룹의 새로운 성장 동력으로 꼽히는 그린에너지와 우주항공사업, 방산사업을 확대하는 데 주요한 역할을 담당할 것으로 보인다.한화 관계자는 “김 부회장이 미래사업의 중장기 전략 추진과 투자 결정에 중요한 역할을 맡고 있다”며 “김승연 회장의 경영 구상을 함께 구현해 가며 주요 주주로서 책임 경영도 강화할 계획”이라고 말했다.김 부회장의 승진으로 김승연 회장의 3남 중 김 부회장이 그룹 전반을 담당하고 차남인 김동원 한화생명 부사장이 금융 사업을, 삼남 김동선 한화호텔앤드리조트 상무가 호텔과 리조트 사업을 맡는 구조로 경영권이 승계될 것이란 관측이 나온다. ㈜한화 지분은 김승연 회장이 22.65%, 김 부회장이 4.44%, 차남과 삼남이 각각 1.67%를 보유하고 있다.한화건설 신임 대표이사에는 김승모 ㈜한화 방산부문 대표가 내정됐다. 김 대표는 방산 및 제조 분야 전략통으로 꼽히며 ㈜한화와 합병 예정인 한화건설의 조직 안정화를 이끌 적임자로 평가받는다. 한화에어로스페이스 대표이사에는 손재일 한화디펜스 대표가 김 부회장과 함께 각자 대표이사로 내정됐다. 손 대표는 ㈜한화 기획과 인사, 한화지상방산을 거친 방산전문가다.㈜한화 모멘텀 및 한화정밀기계 신임 대표이사에는 류두형 한화솔루션 첨단소재부문 대표가 내정됐다. 류 대표는 한화에너지 대표이사를 지낸 전자소재분야 전문가로 반도체 장비 및 이차전지 사업 경쟁력 제고에 나설 것으로 전망된다. 한화솔루션 첨단소재부문에는 김인환 한화토탈에너지스 수지사업부문장이, 한화H2에너지 대표이사에는 손영창 한화파워시스템 대표가 선임됐다. ㈜한화 글로벌부문 대표이사로 내정된 양기원 전무는 부사장으로, 한화솔루션 Q에너지 대표이사를 맡고 있는 정상철 상무는 전무로 승진했다.송충현 기자 balgun@donga.com</t>
         </is>
       </c>
     </row>
@@ -635,17 +635,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>서울시, '민간위탁 관리지침' 책자 발간</t>
+          <t>'민간위탁 관리지침' 책으로 나온다</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220830n02163?mid=n0401</t>
+          <t>https://news.nate.com/view/20220830n13735?mid=n0401</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>민간위탁 업무추진 시 필요 내용 총망라 기술서울시 eBook 홈페이지에서 열람… 활용 가능서울특별시 행정사무의 민간위탁 관리지침 표지 /제공=서울시아시아투데이 김한슬 기자 = 서울시가 민간위탁 사무를 위한 실무지침서를 발간했다. 시는 '서울특별시 행정사무의 민간위탁 관리지침' 전면 개정사항 등 민간위탁 업무 시 필요한 핵심 내용을 담은 책자를 최초로 발간했다고 30일 밝혔다.민간위탁은 공공이 직접 해야 할 사무를 민간부문에서 수행하는 것으로, 민간위탁 추진 여부 판단에서부터 수탁기관 선정과 그 관리까지 준수해야 할 기준과 절차가 매우 복잡하고 까다롭다. 그러나 현재 정부 차원의 가이드라인은 없는 상황이다.이에 시는 실무에 활용할 수 있도록 지침을 제·개정했다. 이번 개정은 지침 전 부분에 걸쳐 내용을 보완</t>
+          <t>적용 법령·절차·관리까지 총망라서울시는 ‘행정사무의 민간위탁 관리지침’ 전면 개정사항을 포함해 민간위탁 업무 추진에 필요한 핵심 내용을 담은 책자를 발간했다고 30일 밝혔다.민간위탁은 시민의 다양한 행정수요에 대응하기 위해 민간의 전문성을 활용하는 제도다. 서울시는 1999년 ‘서울시 행정사무의 민간위탁에 관한 조례’를 제정한 이래 현재 400여 개 사무를 민간위탁으로 추진 중이다.민간위탁은 공공이 직접 해야 할 사무를 민간부문에서 수행하는 것이므로 민간위탁 추진 여부 판단에서부터 수탁기관 선정과 이후 관리까지 준수해야 할 기준과 절차가 매우 복잡하고 까다롭다. 하지만 현재 지방자치단체와 수탁기관이 준수해야 할 기본법이나 정부 차원의 가이드라인은 없는 상태다.이에 서울시는 실무에 활용할 수 있도록 지침을 제·개정해 적용해왔다. 최근에는 일부 민간위탁 기관에서 드러난 부정채용 등 불공정 관행을 뿌리뽑기 위해 민간위탁 운영 시스템을 대대적으로 손질하는 방향으로 지침을 개정해 16일부터 시행 중이다.이번에 발간한 지침서는 ▷ 민간위탁 개요 ▷ 민간위탁 대상 사무와 유형 ▷ 민간위탁 추진 절차 ▷ 민간위탁 사무관리 ▷ 주요 질의와 답변 ▷ 감사 등 지적사례로 구성됐다.특히 부정채용 재발 방지를 위한 수탁기관 채용 공정성 확보 방안, 민간위탁 사무의 책임성과 효율성 강화를 위한 중장기 성과계획 수립 의무화 등 최근 개정 사항에 관한 설명을 상세히 담았다.또 지침의 이해도를 높이기 위해 주관부서와 수탁기관에서 자주 하는 질문을 질의·답변으로 엮었으며, 대표적인 감사 지적사례를 실어 위반사례 재발을 방지하고자 했다. 시는 지침서를 주관부서에 배포할 예정이다.조성호 서울시 조직담당관은 “민간위탁은 민간의 전문기술을 활용해 행정의 능률성을 높이고 비용을 절감할 수 있을 뿐만 아니라 시민에게 질 높은 행정서비스를 제공할 수 있는 매우 효과적인 수단”이라며 “지침서가 실무에 많은 도움이 되기를 바란다”고 했다. 김용재 기자brunch@heraldcorp.com[베스트 클릭! 헤럴드 경제 얼리어답터 뉴스]Copyright ⓒ 헤럴드경제 All Rights Reserved.</t>
         </is>
       </c>
     </row>
@@ -662,17 +662,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>경총 "쉬운 규제 입법 관행 고쳐야…기업에 대한 정책적 배려 필요"</t>
+          <t>손경식 경총 회장 "너무 쉬운 규제, 이젠 개선해야"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220830n20420?mid=n0301</t>
+          <t>https://news.nate.com/view/20220830n29529?mid=n0301</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30일 경총 ‘과잉 입법 논란, 어떻게 해결할 것인가?’ 토론회 개최[이투데이/강태우 기자]규제 입법 시 기업 투자ㆍ일자리 영향도 고려 필요 과잉 입법, 시장 혁신 및 활력 억압 등 부작용 발생전문가들 “행정부 협력 강화, 비규제대안 검토해야”앞줄 왼쪽부터 김형동 의원, 윤창현 의원, 최연숙 의원, 김미애 의원, 최준선 교수, 손경식 경총 회장, 김학용 의원, 주호영 의원, 최승재 의원, 이종한 한국행정연구원 규제정책연구실장, 이형준 경총 고용사회정책본부장. (뒷줄 왼쪽부터) 백광엽 한국경제 논설위원, 전진영 입법조사처 정치의회팀장, 박현석 국회미래연구원 거버넌스그룹장, 양용현 KDI 규제연구센터장.(사진제공=한국경영자총협회)한국경영자총협회(경총)가 규제 입법이 너무 쉽게 만들어지는 관행에 대해 개선이 필요하다고 지적했다.경총은 30일 오후 국회의원회관 제1소회의실에서 김학용 의원실(국회 국토교통위원회)과 ‘과잉 입법 논란, 어떻게 해결할 것인가?’를 주제로 공동 토론회를 개최했다.이날 토론회에는 손경식 경총 회장, 김학용 국민의힘 의원을 비롯한 이종한 한국행정연구원 규제정책연구실 실장, 양용현 KDI 규제연구센터 센터장, 최준선 성균관대 법학전문대학원 명예교수 등이 참석했다.손 회장은 이날 환영사를 통해 “21대 국회 전반기 2년 동안 발의된 법안들을 살펴보면 특정 분야에 대한 보호를 강조한 나머지 기업 부담에 대한 검토는 소홀했던 경우도 있었다”고 평가했다.그러면서 “어떤 제도라도 일단 법제화되면 보완과 개정이 쉽지 않기 때문에 해당 법률이 국민의 기본권과 기업활동을 과도하게 제약하지 않는지 면밀한 사전 검토가 수반돼야 한다”며 “기업 투자와 일자리에 미치는 영향에 대해서도 정책적 배려가 필요하다”고 강조했다.김학용 의원은 “20대 국회 4년간 의원들이 발의한 법안 수는 20년 전보다 20배 넘게 증가했고 매년 본회의에서 통과되는 법안 수도 영국의 79배에 달하지만 입법에 대한 국민의 체감도가 높지 않다”고 밝혔다.이어 “비슷한 내용을 쪼개거나 문구나 표기만 고친 법안들이 다수 발의되는 등 부실입법이 급증했다”며 “졸속ㆍ부실ㆍ과잉 입법 문제의 핵심은 규제를 양산해 시장의 혁신과 활력을 억압하는 것이다”고 덧붙였다.김 의</t>
+          <t>기사내용 요약경총·김학용 의원실, '과잉 입법 논란, 어떻게 해결할 것인가?' 토론회[서울=뉴시스]한국경영자총협회(이하 ‘경총’)은 30일 국회 국토교통위원회 김학용 의원실과 '과잉 입법 논란, 어떻게 해결할 것인가?'를 주제로 공동 토론회를 개최했다. 손경식 경총 회장이 발언하고 있다. (사진=경총 제공) *재판매 및 DB 금지[서울=뉴시스] 최희정 기자 = "어떤 제도라도 일단 법제화 되면 보완과 개정이 쉽지 않으며, 자칫 국민과 기업 모두에게 규제로 작용할 수 있습니다. 규제 입법이 너무 쉽게 만들어지는 관행은 개선돼야 합니다."손경식 한국경영자총협회(경총) 회장은 30일 국회 국토교통위원회 김학용 의원실이 공동 개최한 '과잉 입법 논란, 어떻게 해결할 것인가?' 토론회에서 이같이 밝혔다. 손 회장은 "전 세계가 고유가·고물가에 시달리고 있는 가운데, 미국이 반도체법을 만들어 자국기업 지원에 나서고 있다"며 "정부 의지만으로는 당면한 위기를 극복할 수 없어 경제 활력 제고를 위해 국회 입법지원도 함께 필요하다"고 강조했다. 다만 "21대 국회 전반기 2년 동안 발의된 법안들을 살펴보면 특정 분야에 대한 보호를 강조한 나머지, 기업 부담에 대한 검토는 소홀했던 경우도 있었다"고 평가했다.아울러 "어떤 제도라도 일단 법제화되면 보완과 개정이 쉽지 않기 때문에, 해당 법률이 국민의 기본권과 기업활동을 과도하게 제약하지 않는지 면밀한 사전 검토가 수반돼야 한다"며 "기업 투자와 일자리에 미치는 영향에 대해서도 정책적 배려가 필요하다"고 지적했다.김학용 국민의힘 의원은 환영사를 통해 "정부의 규제개혁 노력이 용두사미(龍頭蛇尾)로 끝나지 않으려면, 규제를 만들고 실행하는 국회부터 자기 성찰과 검열의 노력이 필요하다"고 밝혔다.김 의원은 "20대 국회 4년간 의원들이 발의한 법안 수는 20년 전에 비해 20배 넘게 증가했다"며 "매년 본회의에서 통과되는 법안 수도 영국의 79배에 달하지만 입법에 대한 국민의 체감도가 높지 않다"고 했다. 이러한 원인으로 "비슷한 내용을 쪼개거나 문구나 표기만 고친 법안들이 다수 발의되는 등 부실입법이 급증했다"면서 "졸속·부실·과잉 입법 문제의 핵심은 규제를 양산해 시장의 혁신과 활력을 억압하는 것"이라는 입장을 밝혔다.과잉 규제의 대표적인 사례로는 2020년 12월 통과된 기업규제 3법(공정거래법, 상법, 금융그룹감독법)을 들었다. 김 의원은 "아무런 규제 영향 평가가 없었으며, 2020년 3월 통과된 '타다금지법'은 신산업을 울린 대표적인 규제 개혁 실패 사례"라고 지적했다.[서울=뉴시스] (앞줄 왼쪽부터) 김형동 의원, 윤창현 의원, 최연숙 의원, 김미애 의원, 최준선 교수, 손경식 경총 회장, 김학용 의원, 주호영 의원, 최승재 의원, 이종한 한국행정연구원 규제정책연구실장, 이형준 경총 고용사회정책본부장. (뒷줄 왼쪽부터) 백광엽 한국경제 논설위원, 전진영 입법조사처 정치의회팀장, 박현석 국회미래연구원 거버넌스그룹장, 양용현 KDI 규제연구센터장 (사진=경총 제공) *재판매 및 DB 금지첫 번째 발제를 맡은 이종한 한국행정연구원 규제혁신연구실장은 입법부의 규제입법 모델 개발의 필요성을 강조했다.이종한 실장은 "최근 품질검증 없이 양적으로 급격히 증가하는 의원발의 규제법률안은 획일적 규제로 인한 문제를 심화시키고, 빠르게 변화하고 있는 기술환경에 민첩한 대응을 어렵게 할 우려가 크다"며 "규제입법에서 국회의 역할이 증가할수록 행정부와의 협력적 거버넌스를 강화해야 한다"고 주장했다.두 번째 발제를 맡은 양용현 KDI(한국개발연구원) 규제연구센터 센터장은 "국회 입법 과정에서 대안에 대한 검토와 대안 간 장단점을 비교함에 있어 부족함이 있다"고 말했다.양용현 센터장은 "의원 발의 법안의 경우 정부 발의 법안과 달리 규제심사 절차가 없다"며 "법안 심사 단계에서 다양한 대안을 검토하기보다는 제출된 법안을 중심으로 소폭 수정해 의결하는 경향이 있어, 최선의 대안을 모색하는 데 한계가 있다"고 지적했다. dazzling@newsis.com&lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&gt;</t>
         </is>
       </c>
     </row>
@@ -689,17 +689,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>빌 게이츠도 제쳤다…머스크·베이조스 이은 '세계 3위' 부자는?</t>
+          <t>인도 아다니, 아시아인 첫 세계 3위 부자로 이름 올려</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220830n35260?mid=n0501</t>
+          <t>https://news.nate.com/view/20220830n24730?mid=n0501</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>인도 재벌 아다니, 재산 185조아시아인 첫 세계 3위 부자 등극인도 인프라 기업 아다니그룹의 가우탐 아다니 회장이 전 세계 부호 순위 ‘톱3’에 들었다. 수년 전까지만 해도 인도 밖에서는 이름조차 듣기 어려웠지만, 원자재 가격과 회사 주가 급등에 힘입어 아시아인 최초로 글로벌 3대 갑부로 자리매김했다.29일(현지시간) 블룸버그 억만장자 지수에 따르면, 아다니 회장은 순자산 1,374억 달러(약 184조5,000억 원)로 세계 부자 순위 3위에 올랐다.‘인프라 갑부’로 불리는 그의 자산은 올해 들어서만 609억 달러(약 81조8,000억 원) 불어났다. 세계 부호 서열 10위 가운데 연초 대비 자산이 늘어난 인물은 아다니 회장이 유일하다. 물가상승(인플레이션)과 경기침체 우려로 주식시장이 폭락하면서 세계 억만장자들의 자산이 절반적으로 줄었지만, 아다니 회장 재산은 원자재 가격 상승과 인도 정부 개발 정책 관련 호재로 반사이익을 누리면서 꾸준히 늘었다.이에 따라 지난달 빌 게이츠 마이크로소프트(MS) 창업자를 밀어내고 4위로 올라선 데 이어, 이번에는 기존 3위였던 프랑스 패션그룹 루이뷔통모에헤네시(LVMH)의 베르나르 아르노 회장마저 제쳤다. 그의 앞에는 세계 최대 부호 일론 머스크 테슬라 최고경영자(CEO)와 제프 베이조스 아마존 창업자밖에 없다는 의미다.아다니 회장은 다이아몬드 거래상으로 사업을 시작해 1988년 아다니그룹을 세우면서 인도를 대표하는 거상(巨商)으로 도약했다. 현재 인도 최대 물류·에너지 기업으로 꼽힌다. 아다니그룹은 항만·공항 운영 등 인프라 사업을 필두로 석탄·가스 등 자원개발, 유통과 전력 사업도 벌이고 있다. 그룹이 운영하는 각 공항의 이용객 수는 인도 전체의 4분의 1가량을 차지할 정도다.최근에는 재생에너지 및 그린수소 생산 관련 대규모 투자 계획을 발표하며 미래 시장 선점에도 적극 뛰어들었다. 아다니 회장은 2030년까지 700억 달러(약 91조 원)를 투자해 그룹을 세계 최대 재생에너지 생산업체로 끌어올리겠다고 밝힌 상태다.그러나 아다니그룹이 세계 최대 규모 기업 중 하나로 성장하면서 우려의 시선도 커지고 있다고 블룸버그는 지적했다. 채권 리서치 회사 크레디트사이츠는 그룹이 기업들을 무더기로 인수하는 과정에서 주로 부채로 자금을 조달했다는 점을 근거로 “부채 비율이 과도하게 높다”고 평가했다. 최악의 경우 채무불이행(디폴트) 가능성도 배제하기 어렵다는 얘기다. 또 그룹의 지배 구조가 불투명하고 그룹 소속 기업에 대한 애널리스트들의 분석이 부족하다는 지적도 이어지고 있다.허경주 기자 fairyhkj@hankookilbo.com 관련기사- - - - -</t>
+          <t>[뭄바이(인도)=AP/뉴시스]2019년 3월 10일 인도 뭄바이에서 열린 무카시 암바니 릴라이언스 그룹 회장의 아들 아카시 암바니의 결혼식 피로연에서 가우탐 아다니 아다니 그룹 회장이 포즈를 취하고 있다. 2022.04.05[서울=뉴시스] 김지은 기자 = 인도 인프라 기업 아다니그룹의 가우탐 아다니 회장이 아시아인 최초로 세계 부호 서열 3위에 이름을 올렸다.30일 힌두스탄 타임스 등 현지 매체에 따르면 아다니 회장은 아시아인 최초로 블룸버그가 집계하는 세계 부자 순위에서 '톱3' 안에 들었다. 억만장자 지수에 따르면 아다니 회장의 개인 자산은 1374억 달러(약 185조원)로 일론 머스크 테슬라 최고경영자(CEO), 제프 베이조스 아마존 창업자에 이어 3위에 랭크됐다. 기존에 3위 자리를 지키던 프랑스의 버나드 아놀트 루이비통모에헤네시(LVMH) 창업주는 4위로 밀려났다. LVMH는 루이비통과 크리스찬디올 등을 거느린 프랑스 패션 기업이다.아다니의 자산은 올해 들어 609억 달러 불어나 세계 부자들 가운데 증가액이 가장 많았다.아다니가 1988년 창립한 아다니 그룹은 현재 인도 최대 물류·에너지 기업이다. 항만·공항운영 등 인프라와 석탄, 가스 등 자원개발 및 유통 분야까지 아우른다.올해로 60세인 아다니 회장은 대학 중퇴 후 뭄바이에서 다이아몬드 거래상으로 사회생활을 시작, 1988년 현재 그룹 주력 회사인 아다니 엔터프라이스를 설립해 무역 사업을 확장했다. 이후 항만 건설 사업에도 뛰어든 그는 점차 인도의 인프라 사업에서 영역을 키워 에너지 사업 등으로 포트폴리오를 넓히고 있다.아다니 회장은 지난 2월 아시아 최고 부호였던 무케시 암바니 인도 릴라이언스인더스트리 회장을 제친 뒤 지난 4월 아시아인 최초로 개인 자산 규모가 1000억달러를 넘어섰다. 그러다 지난달 빌 게이츠 마이크로소프트(MS) 창업자를 제치고 세계 부호서열 4위에 이름을 올렸다. 다만 급격한 성장에 따른 시장의 우려도 커지고 있다. 아다니 그룹이 주로 부채를 통해 자금을 조달해 이로 인해 최악의 경우 디폴트(채무불이행) 가능성도 배제할 수 없다고 신용 평가사는 지적한 바 있다. kje1321@newsis.com&lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&gt;</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>한국·일본 생산 배터리 점유율, 4년 뒤면 미국·유럽에 다 뺏긴다</t>
+          <t>계획이 무너지게 생겼다…이 정부를 믿고 갈 수 있을까?</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://news.nate.com/view/20220830n17144?mid=n0301</t>
+          <t>https://news.nate.com/view/20220830n01741?mid=n0401</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>사진=AP미국과 유럽이 전기자동차용 배터리의 자국 내 생산 확대 정책을 확대하면서 불과 4~5년 만에 한국과 일본의 세계 점유율을 상당 부분 가져갈 것이란 분석이 나왔다. 30일 경제매체 차이신에 따르면 글로벌 컨설팅사 커니(옛 AT커니)는 최근 발간한 '글로벌 동력전지산업 보고서'를 통해 2026년의 세계 배터리 산업을 전망했다. 커니는 2026년 글로벌 전기차용 배터리 생산역량이 1951(GWh)기가와트시로 2021년보다 5.7배 늘어날 것으로 관측했다. 1GWh는 통상 전기차 1만5000대에 해당한다. 2026년에 전기차 3000만대분의 배터리를 생산할 수 있다는 얘기다. 연간 세계 자동차 판매량은 9000만대 안팎이다. 커니는 2021년 2%인 미국·유럽산 배터리 점유율이 2026년 18%로 올라갈 것으로 내다봤다. 기업이 아닌 생산 지역 기준 점유율이다. 한국·일본산은 44%에서 24%로 내려갈 것으로 예상했다. 자국 시장이 큰 중국은 58%에서 55%로 소폭 내려갈 것이란 전망이다. 미국에선 테슬라와 일본 파나소닉의 배터리 합작사 기가팩토리가 생산설비를 계속 늘리고 있다. LG에너지솔루션, SK온 등 한국 기업들도 현지 공장을 확장하고 있다. 유럽에선 신생 업체인 스웨덴 노스볼트가 폭스바겐과 협력해 80GWh 공장을 짓고 있다. 중국의 세계 최대 배터리 업체인 CATL도 현지 시장을 겨냥해 독일 공장을 올해부터 가동한 데 이어 북미 투자도 검토하고 있다. 빠르게 성장하는 배터리 산업의 생산설비를 유치하는 것은 일자리와 세수에서 상당한 의미를 갖는다. 글로벌 공급망 분화가 가속화하는 최근 상황에선 국가안보와도 직결되는 문제로 부상하고 있다. 미국은 '인플레이션 감축법'을 시행하면서 전기차용 배터리의 미국 내 생산을 사실상 강제하고 나섰다. 유럽연합(EU)은 2027년부터 역내 부품 비중이 65%에 미달하는 배터리에 10%의 관세를 부과할 방침이다. 차이신은 "EU의 정책은 미국·유럽산에 비해 20%가량 원가 경쟁력을 가진 중국 업체들에 타격이 될 것"이라고 분석했다. 커니는 글로벌 배터리 시장이 '기술 주도'에서 '규모 중심'으로 바뀌면서 경쟁이 더욱 치열해지는 '레드오션'이 될 것으로 진단했다. 주요 국가와 기업들이 기술보다는 설비 확장에 매달리고 있고, 현존하는 삼원계 또는 인산철 배터리를 대체할 전고체 배터리 등이 상용화되기까지는 상당한 시간이 걸릴 것이란 이유에서다. 커니는 기업 별로는 한·중·일 3강 체제가 2026년에는 한·중 양강 체재로 개편할 것으로 내다봤다. 한국은 기술, 중국은 시장에서 경쟁 우위가 있다는 분석이다. 한국 배터리 기업들은 미국과 유럽에 적극 진출하는 반면 일본 업체는 전기차에 소극적인 자국 완성차 업체를 따라가고 있다고 커니는 지적했다.베이징=강현우 특파원 hkang@hankyung.com▶ ▶  관련기사</t>
+          <t>[소셜 코리아] 지구 뜨거워지고 기후장벽 높아가는데... 미국·유럽 정책에 제조업 직격탄 [오기출]한국의 공론장은 다이내믹합니다. 매체도 많고, 의제도 다양하며 논의가 이뤄지는 속도도 빠릅니다. 하지만 많은 논의가 대안 모색 없이 종결됩니다. 소셜 코리아는 이런 상황을 바꿔 '대안 담론'을 주류화하고자 합니다. 구체적으로는 ▲근거에 기반한 문제 지적과 분석 ▲문제를 다루는 현 정책에 대한 날카로운 비판을 거쳐 ▲실현 가능한 정의로운 대안을 제시하고자 합니다. 소셜 코리아는 재단법인 공공상생연대기금이 상생과 연대의 담론을 확산하고자 학계, 시민사회, 노동계를 비롯해 각계각층의 시민들과 함께 만들어가는 열린 플랫폼입니다. 기사에 대한 의견 또는 기고 제안은 social.corea@gmail.com으로 보내주시기 바랍니다.  &lt;기자말&gt;   ▲  조 바이든 미국 대통령이 지난 16일(현지시간) 워싱턴DC 백악관에서 기후변화 대응과 의료보장 확충 등을 골자로 한 '인플레이션 감축법'에 서명하고 있다. 왼쪽부터 조 맨친 상원의원, 척 슈머 상원의원, 제임스 클리번 하원의원, 프랭크 펄론 하원의원, 캐시 캐스터 하원의원.           ⓒ 연합뉴스 지구 온도가 너무 빨리 올라간다. 미국 기후 싱크탱크 '버클리 어스'는 지난 1월 지구 평균온도가 산업혁명 전과 대비해서 1.3℃ 올랐다고 발표했다. 유엔은 2018년 지구 온도가 1℃ 상승했다고 보고했으나 그 후 단 3년 만에 0.3℃나 올랐다. 과학자들은 1.5℃ 상승을 마지노선으로 본다. 1.5℃가 오르면 남극이 본격적으로 녹으면서 해수면 상승 등 돌이킬 수 없는 기후 붕괴가 발생하기 때문이다. 이 속도라면 1.5℃는 이제 2년도 안 남았다.지구 온도 상</t>
         </is>
       </c>
     </row>
